--- a/data/group_1_data.xlsx
+++ b/data/group_1_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobpollard/Desktop/Uni/1.2/BABS-2 /Report and figure/Y3948024/figure_and_stats/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347960FC-09B3-9B4A-B0C7-350113CF95B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9C5D0D-38CB-C944-AD4D-12299B2B6401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{6F6DD0DB-FCDA-9A43-B113-C4D3EF3DF19C}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,6 +89,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="32"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,9 +117,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,15 +455,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE71E36-8DEE-FD48-BC07-CDBF82E684BC}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A33"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="40" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -475,10 +482,11 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1525000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>76250</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -486,10 +494,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1225000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>61250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -497,10 +505,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1425000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>71250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -508,10 +516,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1775000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>88750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -519,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1250000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -530,10 +538,10 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>1450000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>72500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -541,10 +549,10 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>1350000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -552,10 +560,10 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -563,10 +571,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>3725000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -574,10 +582,10 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>2975000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>148750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -585,10 +593,10 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>3725000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -596,10 +604,10 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>3225000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>161250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -607,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>7375000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>368750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -618,10 +626,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>4875000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>243750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -629,7 +637,7 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>4875000</v>
+        <v>243750</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -640,7 +648,7 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>6875000</v>
+        <v>343750</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -651,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>48750</v>
+        <v>2437.5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -662,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>28750</v>
+        <v>1437.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -673,7 +681,7 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>28750</v>
+        <v>1437.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -684,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>43750</v>
+        <v>2187.5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -695,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>625000</v>
+        <v>31250</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -706,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>625000</v>
+        <v>31250</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -717,7 +725,7 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>575000</v>
+        <v>28750</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -728,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>775000</v>
+        <v>38750</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -739,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>987500</v>
+        <v>49375</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -750,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>837500</v>
+        <v>41875</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -761,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>837500</v>
+        <v>41875</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -772,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>787500</v>
+        <v>39375</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -783,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>687500</v>
+        <v>34375</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -794,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>687500</v>
+        <v>34375</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -805,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>737500</v>
+        <v>36875</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -816,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>587500</v>
+        <v>29375</v>
       </c>
     </row>
   </sheetData>

--- a/data/group_1_data.xlsx
+++ b/data/group_1_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobpollard/Desktop/Uni/1.2/BABS-2 /Report and figure/Y3948024/figure_and_stats/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9C5D0D-38CB-C944-AD4D-12299B2B6401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4B0A9F-E5C6-374D-91FC-6F5C3E072235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{6F6DD0DB-FCDA-9A43-B113-C4D3EF3DF19C}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
-  <si>
-    <t>plate</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="14">
   <si>
     <t>spot</t>
   </si>
@@ -69,6 +66,18 @@
   </si>
   <si>
     <t>60WO</t>
+  </si>
+  <si>
+    <t>Contamination</t>
+  </si>
+  <si>
+    <t>With hexadecane</t>
+  </si>
+  <si>
+    <t>Without hexadecane</t>
+  </si>
+  <si>
+    <t>Plate</t>
   </si>
 </sst>
 </file>
@@ -458,25 +467,28 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="D1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="40" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -484,11 +496,14 @@
       <c r="C2">
         <v>76250</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -496,10 +511,13 @@
       <c r="C3">
         <v>61250</v>
       </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -507,10 +525,13 @@
       <c r="C4">
         <v>71250</v>
       </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -518,10 +539,13 @@
       <c r="C5">
         <v>88750</v>
       </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -529,10 +553,13 @@
       <c r="C6">
         <v>62500</v>
       </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -540,10 +567,13 @@
       <c r="C7">
         <v>72500</v>
       </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -551,10 +581,13 @@
       <c r="C8">
         <v>67500</v>
       </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -562,10 +595,13 @@
       <c r="C9">
         <v>60000</v>
       </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -573,10 +609,13 @@
       <c r="C10">
         <v>186250</v>
       </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -584,10 +623,13 @@
       <c r="C11">
         <v>148750</v>
       </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -595,10 +637,13 @@
       <c r="C12">
         <v>186250</v>
       </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -606,10 +651,13 @@
       <c r="C13">
         <v>161250</v>
       </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -617,10 +665,13 @@
       <c r="C14">
         <v>368750</v>
       </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -628,10 +679,13 @@
       <c r="C15">
         <v>243750</v>
       </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -639,10 +693,13 @@
       <c r="C16">
         <v>243750</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -650,10 +707,13 @@
       <c r="C17">
         <v>343750</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -661,10 +721,13 @@
       <c r="C18">
         <v>2437.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -672,10 +735,13 @@
       <c r="C19">
         <v>1437.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -683,10 +749,13 @@
       <c r="C20">
         <v>1437.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -694,10 +763,13 @@
       <c r="C21">
         <v>2187.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -705,10 +777,13 @@
       <c r="C22">
         <v>31250</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -716,10 +791,13 @@
       <c r="C23">
         <v>31250</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -727,10 +805,13 @@
       <c r="C24">
         <v>28750</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -738,10 +819,13 @@
       <c r="C25">
         <v>38750</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -749,10 +833,13 @@
       <c r="C26">
         <v>49375</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -760,10 +847,13 @@
       <c r="C27">
         <v>41875</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -771,10 +861,13 @@
       <c r="C28">
         <v>41875</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -782,10 +875,13 @@
       <c r="C29">
         <v>39375</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -793,10 +889,13 @@
       <c r="C30">
         <v>34375</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -804,10 +903,13 @@
       <c r="C31">
         <v>34375</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -815,16 +917,22 @@
       <c r="C32">
         <v>36875</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33">
         <v>29375</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/group_1_data.xlsx
+++ b/data/group_1_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobpollard/Desktop/Uni/1.2/BABS-2 /Report and figure/Y3948024/figure_and_stats/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4B0A9F-E5C6-374D-91FC-6F5C3E072235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9080A160-40E6-2E4D-B39E-3BDED6FA4588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{6F6DD0DB-FCDA-9A43-B113-C4D3EF3DF19C}"/>
+    <workbookView xWindow="10520" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{6F6DD0DB-FCDA-9A43-B113-C4D3EF3DF19C}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,12 +98,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="32"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,10 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,15 +457,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE71E36-8DEE-FD48-BC07-CDBF82E684BC}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -486,7 +482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="40" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -494,14 +490,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>76250</v>
+        <v>305000</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -509,13 +504,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>61250</v>
+        <v>245000</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -523,13 +518,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>71250</v>
+        <v>285000</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -537,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>88750</v>
+        <v>355000</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -551,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>62500</v>
+        <v>250000</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -565,13 +560,13 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>72500</v>
+        <v>290000</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -579,13 +574,13 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>67500</v>
+        <v>270000</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -593,13 +588,13 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>60000</v>
+        <v>240000</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -607,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>186250</v>
+        <v>745000</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -621,13 +616,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>148750</v>
+        <v>595000</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -635,13 +630,13 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>186250</v>
+        <v>745000</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -649,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>161250</v>
+        <v>645000</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -663,13 +658,13 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>368750</v>
+        <v>1475000</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -677,13 +672,13 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>243750</v>
+        <v>975000</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -691,7 +686,7 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>243750</v>
+        <v>975000</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -705,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>343750</v>
+        <v>1375000</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -719,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>2437.5</v>
+        <v>9750</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -733,7 +728,7 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>1437.5</v>
+        <v>5750</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -747,7 +742,7 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>1437.5</v>
+        <v>5750</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -761,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>2187.5</v>
+        <v>8750</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -775,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>31250</v>
+        <v>125000</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -789,7 +784,7 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>31250</v>
+        <v>125000</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -803,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>28750</v>
+        <v>115000</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -817,7 +812,7 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>38750</v>
+        <v>155000</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -831,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>49375</v>
+        <v>197500</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -845,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>41875</v>
+        <v>167500</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -859,7 +854,7 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>41875</v>
+        <v>167500</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -873,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>39375</v>
+        <v>157500</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -887,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>34375</v>
+        <v>137500</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -901,7 +896,7 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>34375</v>
+        <v>137500</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -915,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>36875</v>
+        <v>147500</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -929,7 +924,7 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>29375</v>
+        <v>117500</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
